--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_194__Reeval_LHS_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_194__Reeval_LHS_Modell_1.1.xlsx
@@ -5879,46 +5879,46 @@
                   <c:v>32.958984375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.50185489654541</c:v>
+                  <c:v>13.50185680389404</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.94248390197754</c:v>
+                  <c:v>17.94248008728027</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.84360122680664</c:v>
+                  <c:v>41.84359741210938</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.10783576965332</c:v>
+                  <c:v>15.10783958435059</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>28.13146591186523</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31.60410499572754</c:v>
+                  <c:v>31.60410308837891</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-7.831690788269043</c:v>
+                  <c:v>-7.831686019897461</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>16.28514289855957</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.65762138366699</c:v>
+                  <c:v>24.65761947631836</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23.53791236877441</c:v>
+                  <c:v>23.53791427612305</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>18.2446346282959</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.32290267944336</c:v>
+                  <c:v>18.32290458679199</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>35.7581672668457</c:v>
+                  <c:v>35.75816345214844</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18.86429786682129</c:v>
+                  <c:v>18.86429977416992</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>19.28678894042969</c:v>
@@ -5927,37 +5927,37 @@
                   <c:v>18.20578002929688</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23.20052528381348</c:v>
+                  <c:v>23.20052337646484</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21.1452522277832</c:v>
+                  <c:v>21.14525413513184</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13.05613803863525</c:v>
+                  <c:v>13.0561351776123</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>25.30016136169434</c:v>
+                  <c:v>25.30015754699707</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>14.77666759490967</c:v>
+                  <c:v>14.77667236328125</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>28.42738723754883</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>16.77990341186523</c:v>
+                  <c:v>16.7799015045166</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>30.49509429931641</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>17.19976234436035</c:v>
+                  <c:v>17.19975852966309</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>17.84308052062988</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>31.21849822998047</c:v>
+                  <c:v>31.21850395202637</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>18.86344909667969</c:v>
@@ -5966,88 +5966,88 @@
                   <c:v>18.73471069335938</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>19.15288352966309</c:v>
+                  <c:v>19.15287780761719</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>12.56655597686768</c:v>
+                  <c:v>12.56656265258789</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>15.88088512420654</c:v>
+                  <c:v>15.88088893890381</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>17.01467323303223</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>12.11107730865479</c:v>
+                  <c:v>12.11107540130615</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>17.25079917907715</c:v>
+                  <c:v>17.25079727172852</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38.47357559204102</c:v>
+                  <c:v>38.47357177734375</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>17.12257957458496</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>18.82419013977051</c:v>
+                  <c:v>18.82419586181641</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>14.55520534515381</c:v>
+                  <c:v>14.55520057678223</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>31.65937423706055</c:v>
+                  <c:v>31.65937232971191</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>37.0810661315918</c:v>
+                  <c:v>37.08105850219727</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>18.69100570678711</c:v>
+                  <c:v>18.69100379943848</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>28.17915725708008</c:v>
+                  <c:v>28.17915916442871</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>15.53631114959717</c:v>
+                  <c:v>15.53631019592285</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>23.66215705871582</c:v>
+                  <c:v>23.66215515136719</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>10.0315580368042</c:v>
+                  <c:v>10.03156471252441</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>33.35024642944336</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>34.74009323120117</c:v>
+                  <c:v>34.74008941650391</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>17.37557983398438</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>15.67028903961182</c:v>
+                  <c:v>15.6702938079834</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>11.6843729019165</c:v>
+                  <c:v>11.68436813354492</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>17.12823295593262</c:v>
+                  <c:v>17.12822914123535</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>18.40967559814453</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>30.29114723205566</c:v>
+                  <c:v>30.29114532470703</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>19.04798889160156</c:v>
+                  <c:v>19.0479907989502</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>31.42946624755859</c:v>
+                  <c:v>31.42947006225586</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>21.76357460021973</c:v>
+                  <c:v>21.76357650756836</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>22.93320655822754</c:v>
@@ -6056,73 +6056,73 @@
                   <c:v>11.65210914611816</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>31.35745620727539</c:v>
+                  <c:v>31.35745429992676</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>10.73923206329346</c:v>
+                  <c:v>10.73922920227051</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>25.69369697570801</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>21.95925140380859</c:v>
+                  <c:v>21.9592399597168</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>22.03018379211426</c:v>
+                  <c:v>22.03018760681152</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>17.17854118347168</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>23.67067909240723</c:v>
+                  <c:v>23.67067718505859</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>14.7613697052002</c:v>
+                  <c:v>14.76136589050293</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>15.39896011352539</c:v>
+                  <c:v>15.39895820617676</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>17.98500823974609</c:v>
+                  <c:v>17.98501205444336</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>26.35453414916992</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>15.54489421844482</c:v>
+                  <c:v>15.54489135742188</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>26.20160102844238</c:v>
+                  <c:v>26.20159721374512</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>13.91247653961182</c:v>
+                  <c:v>13.91247463226318</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>29.45783805847168</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>8.14083194732666</c:v>
+                  <c:v>8.140827178955078</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>16.46424293518066</c:v>
+                  <c:v>16.46424102783203</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>16.81196403503418</c:v>
+                  <c:v>16.81197166442871</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>17.85690116882324</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>11.66913986206055</c:v>
+                  <c:v>11.66913795471191</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>20.83392333984375</c:v>
+                  <c:v>20.83392524719238</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>29.5582160949707</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>12.02971839904785</c:v>
+                  <c:v>12.02972984313965</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>16.55514717102051</c:v>
@@ -6137,25 +6137,25 @@
                   <c:v>26.28451347351074</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>12.41495800018311</c:v>
+                  <c:v>12.41495990753174</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>16.00776863098145</c:v>
+                  <c:v>16.00776672363281</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>28.40419769287109</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>27.31274604797363</c:v>
+                  <c:v>27.31273651123047</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>17.80480575561523</c:v>
+                  <c:v>17.8048095703125</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>16.13335418701172</c:v>
+                  <c:v>16.13335800170898</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6.906541347503662</c:v>
+                  <c:v>6.906539440155029</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>25.78467559814453</c:v>
@@ -6164,7 +6164,7 @@
                   <c:v>19.86945152282715</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>18.5175838470459</c:v>
+                  <c:v>18.51758575439453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>13.50185489654541</v>
+        <v>13.50185680389404</v>
       </c>
       <c r="G4">
         <v>78</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>17.94248390197754</v>
+        <v>17.94248008728027</v>
       </c>
       <c r="G5">
         <v>78</v>
@@ -6987,7 +6987,7 @@
         <v>47.7145</v>
       </c>
       <c r="F6">
-        <v>41.84360122680664</v>
+        <v>41.84359741210938</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>15.10783576965332</v>
+        <v>15.10783958435059</v>
       </c>
       <c r="G7">
         <v>78</v>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>31.60410499572754</v>
+        <v>31.60410308837891</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>-7.831690788269043</v>
+        <v>-7.831686019897461</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>24.65762138366699</v>
+        <v>24.65761947631836</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7151,7 +7151,7 @@
         <v>63.3281</v>
       </c>
       <c r="F13">
-        <v>23.53791236877441</v>
+        <v>23.53791427612305</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>18.32290267944336</v>
+        <v>18.32290458679199</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>49.8428</v>
       </c>
       <c r="F16">
-        <v>35.7581672668457</v>
+        <v>35.75816345214844</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>46.0307</v>
       </c>
       <c r="F17">
-        <v>18.86429786682129</v>
+        <v>18.86429977416992</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>46.3987</v>
       </c>
       <c r="F20">
-        <v>23.20052528381348</v>
+        <v>23.20052337646484</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>21.1452522277832</v>
+        <v>21.14525413513184</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>13.05613803863525</v>
+        <v>13.0561351776123</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>25.30016136169434</v>
+        <v>25.30015754699707</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>14.77666759490967</v>
+        <v>14.77667236328125</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>16.77990341186523</v>
+        <v>16.7799015045166</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>17.19976234436035</v>
+        <v>17.19975852966309</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>58.4079</v>
       </c>
       <c r="F30">
-        <v>31.21849822998047</v>
+        <v>31.21850395202637</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>19.15288352966309</v>
+        <v>19.15287780761719</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>12.56655597686768</v>
+        <v>12.56656265258789</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>15.88088512420654</v>
+        <v>15.88088893890381</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>12.11107730865479</v>
+        <v>12.11107540130615</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>17.25079917907715</v>
+        <v>17.25079727172852</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>38.47357559204102</v>
+        <v>38.47357177734375</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>51.9776</v>
       </c>
       <c r="F41">
-        <v>18.82419013977051</v>
+        <v>18.82419586181641</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>14.55520534515381</v>
+        <v>14.55520057678223</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>31.65937423706055</v>
+        <v>31.65937232971191</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>37.0810661315918</v>
+        <v>37.08105850219727</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>18.69100570678711</v>
+        <v>18.69100379943848</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>28.17915725708008</v>
+        <v>28.17915916442871</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>15.53631114959717</v>
+        <v>15.53631019592285</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>53.3588</v>
       </c>
       <c r="F48">
-        <v>23.66215705871582</v>
+        <v>23.66215515136719</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>34.9546</v>
       </c>
       <c r="F49">
-        <v>10.0315580368042</v>
+        <v>10.03156471252441</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>34.74009323120117</v>
+        <v>34.74008941650391</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>15.67028903961182</v>
+        <v>15.6702938079834</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>55.0076</v>
       </c>
       <c r="F54">
-        <v>11.6843729019165</v>
+        <v>11.68436813354492</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>27.296</v>
       </c>
       <c r="F55">
-        <v>17.12823295593262</v>
+        <v>17.12822914123535</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>30.29114723205566</v>
+        <v>30.29114532470703</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>19.04798889160156</v>
+        <v>19.0479907989502</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>52.1266</v>
       </c>
       <c r="F59">
-        <v>31.42946624755859</v>
+        <v>31.42947006225586</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>56.9723</v>
       </c>
       <c r="F60">
-        <v>21.76357460021973</v>
+        <v>21.76357650756836</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>48.1148</v>
       </c>
       <c r="F63">
-        <v>31.35745620727539</v>
+        <v>31.35745429992676</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>48.9905</v>
       </c>
       <c r="F64">
-        <v>10.73923206329346</v>
+        <v>10.73922920227051</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>53.0738</v>
       </c>
       <c r="F66">
-        <v>21.95925140380859</v>
+        <v>21.9592399597168</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>22.03018379211426</v>
+        <v>22.03018760681152</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>23.67067909240723</v>
+        <v>23.67067718505859</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>71.8596</v>
       </c>
       <c r="F70">
-        <v>14.7613697052002</v>
+        <v>14.76136589050293</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>42.2746</v>
       </c>
       <c r="F71">
-        <v>15.39896011352539</v>
+        <v>15.39895820617676</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>52.2351</v>
       </c>
       <c r="F72">
-        <v>17.98500823974609</v>
+        <v>17.98501205444336</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>15.54489421844482</v>
+        <v>15.54489135742188</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>26.20160102844238</v>
+        <v>26.20159721374512</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>13.91247653961182</v>
+        <v>13.91247463226318</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>8.14083194732666</v>
+        <v>8.140827178955078</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>16.46424293518066</v>
+        <v>16.46424102783203</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>16.81196403503418</v>
+        <v>16.81197166442871</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>11.66913986206055</v>
+        <v>11.66913795471191</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>20.83392333984375</v>
+        <v>20.83392524719238</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>48.0677</v>
       </c>
       <c r="F85">
-        <v>12.02971839904785</v>
+        <v>12.02972984313965</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>54.6848</v>
       </c>
       <c r="F90">
-        <v>12.41495800018311</v>
+        <v>12.41495990753174</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>16.00776863098145</v>
+        <v>16.00776672363281</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>27.31274604797363</v>
+        <v>27.31273651123047</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>34.3823</v>
       </c>
       <c r="F94">
-        <v>17.80480575561523</v>
+        <v>17.8048095703125</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>44.9896</v>
       </c>
       <c r="F95">
-        <v>16.13335418701172</v>
+        <v>16.13335800170898</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>53.4777</v>
       </c>
       <c r="F96">
-        <v>6.906541347503662</v>
+        <v>6.906539440155029</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>18.5175838470459</v>
+        <v>18.51758575439453</v>
       </c>
     </row>
     <row r="100" spans="1:6">
